--- a/biology/Biochimie/Anticorps_catalytique/Anticorps_catalytique.xlsx
+++ b/biology/Biochimie/Anticorps_catalytique/Anticorps_catalytique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anticorps catalytiques (aussi appelés abzymes) sont des anticorps capables de catalyser une réaction chimique. Ils sont normalement produits artificiellement. Par rapport à une enzyme normale, ils possèdent une meilleure spécificité par rapport au substrat. Un autre avantage est qu´ils peuvent être produits pour catalyser toute sorte de réactions, comme la réaction de Diels-Alder. Le nom abzyme a été construit à partir des mots antibody (anticorps en anglais) et enzyme. 
 Comme toutes les enzymes, ils fonctionnent en stabilisant l´état de transition de la réaction. En pratique, ils sont développés et sélectionnés à l´aide d´une molécule ressemblant à cet état. Actuellement, des recherches sont menées dans l´espoir de pouvoir utiliser des abzymes à des fins thérapeutiques.
-Les anticorps catalytiques furent décrits pour la première fois en 1986 par les équipes de Peter G. Schultz[1] et Richard Lerner[2].  
+Les anticorps catalytiques furent décrits pour la première fois en 1986 par les équipes de Peter G. Schultz et Richard Lerner.  
 </t>
         </is>
       </c>
